--- a/DbLayouts/L5-管理性作業/HlAreaData.xlsx
+++ b/DbLayouts/L5-管理性作業/HlAreaData.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801EA2A9-1298-42FC-AC61-3C85BA0F5B52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
@@ -224,7 +223,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13">
     <font>
       <sz val="12"/>
@@ -507,8 +506,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -599,23 +598,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -651,23 +633,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -843,11 +808,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1193,7 +1158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">

--- a/DbLayouts/L5-管理性作業/HlAreaData.xlsx
+++ b/DbLayouts/L5-管理性作業/HlAreaData.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -217,6 +217,10 @@
   </si>
   <si>
     <t xml:space="preserve">區域資料主檔 </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -812,7 +816,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -965,7 +969,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E10" s="27">
         <v>20</v>
